--- a/docs/ReactJs.xlsx
+++ b/docs/ReactJs.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bibhuranjan.m\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Detailed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2332,12 +2327,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2376,11 +2377,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2411,6 +2409,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2471,7 +2475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2506,7 +2510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2683,7 +2687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2697,140 +2701,140 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2846,595 +2850,595 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="107.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="107.7265625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="20" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
+    <row r="38" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+    <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+    <row r="44" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+    <row r="45" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+    <row r="46" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+    <row r="48" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+    <row r="51" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
+    <row r="52" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+    <row r="53" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
+    <row r="54" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+    <row r="55" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+    <row r="56" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
+    <row r="58" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
+    <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+    <row r="60" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+    <row r="61" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14" t="s">
+    <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B62" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
+    <row r="64" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="8" t="s">
+    <row r="65" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
+    <row r="66" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+    <row r="67" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+    <row r="68" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+    <row r="69" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+    <row r="70" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+    <row r="71" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+    <row r="72" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+    <row r="73" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+    <row r="74" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
+    <row r="75" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
+    <row r="76" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
+    <row r="77" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+    <row r="78" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+    <row r="79" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
+    <row r="80" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+    <row r="81" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+    <row r="82" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+    <row r="83" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
+    <row r="84" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
+    <row r="85" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+    <row r="87" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
+    <row r="88" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+    <row r="89" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
+    <row r="91" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="8" t="s">
+    <row r="92" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
+    <row r="93" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
+    <row r="95" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
+    <row r="96" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
+    <row r="97" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+    <row r="98" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+    <row r="99" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+    <row r="100" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+    <row r="101" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
+    <row r="102" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+    <row r="103" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+    <row r="105" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
+    <row r="106" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="8" t="s">
+    <row r="107" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
+    <row r="108" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+    <row r="109" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
+    <row r="110" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
+    <row r="111" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+    <row r="113" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
+    <row r="114" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
+    <row r="115" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
+    <row r="116" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="14" t="s">
         <v>21</v>
       </c>
     </row>
